--- a/app/config/tables/femaleClients/forms/client6Month/client6Month.xlsx
+++ b/app/config/tables/femaleClients/forms/client6Month/client6Month.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="33200" windowHeight="27520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="model" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$B$1:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$C$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="382">
   <si>
     <t>type</t>
   </si>
@@ -597,14 +597,7 @@
     <t>Are you still breastfeeding?</t>
   </si>
   <si>
-    <t>For how long did you breastfeed this child?</t>
-  </si>
-  <si>
     <t>Specify other change.</t>
-  </si>
-  <si>
-    <t>Anything else? 
-Record all mentioned.</t>
   </si>
   <si>
     <t>date_nr</t>
@@ -725,10 +718,6 @@
     <t>Script 5: Now, I would like to ask you questions about your relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you for your time in answering these questions.
-</t>
-  </si>
-  <si>
     <t>Enter Interviewer Initials</t>
   </si>
   <si>
@@ -885,12 +874,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
     <t>attendant</t>
   </si>
   <si>
@@ -1105,6 +1088,90 @@
   </si>
   <si>
     <t>interviewer_init</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>selected(data('baby_alive'),'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('baby_alive_now'),'a1')</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>Where did you give birth?</t>
+  </si>
+  <si>
+    <t>selected(data('delivery_location'), 'a6')</t>
+  </si>
+  <si>
+    <t>selected(data('delivery_assisted'), 'a8')</t>
+  </si>
+  <si>
+    <t>selected(data('complications'), 'a5')</t>
+  </si>
+  <si>
+    <t>selected(data('bf_after_deliv'), 'a1')</t>
+  </si>
+  <si>
+    <t>For how long has this child been breastfed?</t>
+  </si>
+  <si>
+    <t>selected(data('hiv_tested'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('test_location'), 'a5')</t>
+  </si>
+  <si>
+    <t>selected(data('art'), 'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('child_curr_meds'), 'a1')</t>
+  </si>
+  <si>
+    <t>Anything else?</t>
+  </si>
+  <si>
+    <t>Record all mentioned.</t>
+  </si>
+  <si>
+    <t>Thank you for your time in answering these questions.</t>
+  </si>
+  <si>
+    <t>selected(data('rel_change'),'a4')</t>
+  </si>
+  <si>
+    <t>selected(data('rel_end_study'),'a1')</t>
+  </si>
+  <si>
+    <t>selected(data('rel_end_reason'),'a5')</t>
+  </si>
+  <si>
+    <t>Your home</t>
+  </si>
+  <si>
+    <t>Other home</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Other government facility</t>
+  </si>
+  <si>
+    <t>Private facility</t>
+  </si>
+  <si>
+    <t>selected(data('rel_change'),'a3')</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1260,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1212,15 +1291,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1234,9 +1321,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1244,9 +1328,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1280,12 +1361,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1684,768 +1818,1317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="63" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="13"/>
-    <col min="10" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="28" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="63" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="10.83203125" style="11"/>
+    <col min="11" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="28" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:19" ht="30">
       <c r="A1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="5" t="s">
+      <c r="S1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1">
-      <c r="B3" s="6" t="s">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="30">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="60">
+      <c r="B6" s="25"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="25"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1">
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="30">
-      <c r="B5" s="6" t="s">
+      <c r="F7" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="25"/>
+      <c r="C8" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45">
+      <c r="A9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="25"/>
+      <c r="C10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="25"/>
+      <c r="C11" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45">
+      <c r="A12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="25"/>
+      <c r="C13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:19" ht="30">
+      <c r="B16" s="25"/>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="25"/>
+      <c r="C17" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="25"/>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="25"/>
+      <c r="C21" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45">
+      <c r="A22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="25"/>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="25"/>
+      <c r="C25" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="25"/>
+      <c r="C26" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
+      <c r="B27" s="25"/>
+      <c r="C27" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="A28" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="25"/>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="25"/>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="25"/>
+      <c r="C32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45">
+      <c r="A33" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="25"/>
+      <c r="C34" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="25"/>
+      <c r="C35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="60">
-      <c r="B6" s="7" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="25"/>
+      <c r="C37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="7" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="45">
+      <c r="B38" s="25"/>
+      <c r="C38" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45">
+      <c r="A39" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="25"/>
+      <c r="C40" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="7" t="s">
+      <c r="D40" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45">
+      <c r="A41" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="25"/>
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="25"/>
+      <c r="C44" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="30">
+      <c r="B46" s="25"/>
+      <c r="C46" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="25"/>
+      <c r="C47" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="25"/>
+      <c r="C48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30">
+      <c r="B49" s="25"/>
+      <c r="C49" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="25"/>
+      <c r="C50" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="25"/>
+      <c r="C51" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30">
+      <c r="A52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="25"/>
+      <c r="C53" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="25"/>
+      <c r="C54" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" ht="30">
+      <c r="B56" s="25"/>
+      <c r="C56" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
+      <c r="B57" s="25"/>
+      <c r="C57" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30">
+      <c r="B58" s="25"/>
+      <c r="C58" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="25"/>
+      <c r="C59" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45">
+      <c r="A60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:10" ht="30">
+      <c r="B61" s="25"/>
+      <c r="C61" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" ht="45">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
-      <c r="B14" s="7" t="s">
+      <c r="D64" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="45">
+      <c r="A65" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" ht="45">
+      <c r="A68" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" ht="30">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" ht="45">
+      <c r="A70" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45">
+      <c r="A73" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="27"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="B15" s="7" t="s">
+      <c r="D78" s="27"/>
+      <c r="E78" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="G78" s="27"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30">
-      <c r="B20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="45">
-      <c r="B28" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="B33" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="B36" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30">
-      <c r="B42" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="D79" s="27"/>
+      <c r="E79" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F79" s="27" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="30">
-      <c r="B43" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30">
-      <c r="B44" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="B46" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="2:6" ht="45">
-      <c r="B49" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="30">
-      <c r="B51" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="30">
-      <c r="B52" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="30">
-      <c r="B54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="C80" s="28"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81" s="28"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82" s="28"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="28"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="C84" s="28"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="28"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" s="28"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" s="28"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="C88" s="28"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="C89" s="28"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="C90" s="28"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91" s="28"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="C92" s="28"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="C93" s="28"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="C94" s="28"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="C95" s="28"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="C96" s="28"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="28"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98" s="28"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99" s="28"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="28"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101" s="28"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="3:5">
+      <c r="C102" s="28"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="28"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104" s="28"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105" s="28"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="3:5">
+      <c r="C106" s="28"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="20"/>
+    </row>
+    <row r="107" spans="3:5">
+      <c r="C107" s="28"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="20"/>
+    </row>
+    <row r="108" spans="3:5">
+      <c r="C108" s="28"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M56"/>
+  <autoFilter ref="C1:N1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2458,10 +3141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2474,13 +3157,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2488,7 +3171,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -2499,7 +3182,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2510,7 +3193,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -2521,7 +3204,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2532,7 +3215,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -2543,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -2554,7 +3237,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2565,7 +3248,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -2576,7 +3259,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -2587,7 +3270,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -2598,7 +3281,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -2609,7 +3292,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2620,7 +3303,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -2631,7 +3314,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2642,7 +3325,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -2653,7 +3336,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -2664,7 +3347,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -2675,7 +3358,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -2686,7 +3369,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -2697,7 +3380,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -2708,7 +3391,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
@@ -2719,7 +3402,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -2730,7 +3413,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -2741,7 +3424,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -2752,7 +3435,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -2763,7 +3446,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2774,7 +3457,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -2785,7 +3468,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -2796,7 +3479,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -2807,7 +3490,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -2818,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -2829,7 +3512,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2840,7 +3523,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2851,7 +3534,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
@@ -2862,7 +3545,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -2873,7 +3556,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>176</v>
@@ -2884,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>51</v>
@@ -2895,7 +3578,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>52</v>
@@ -2906,7 +3589,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>36</v>
@@ -2917,7 +3600,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -2928,7 +3611,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>54</v>
@@ -2939,7 +3622,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>55</v>
@@ -2950,7 +3633,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>56</v>
@@ -2961,7 +3644,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -2972,7 +3655,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>36</v>
@@ -2983,7 +3666,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -2994,7 +3677,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>177</v>
@@ -3005,7 +3688,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>58</v>
@@ -3016,7 +3699,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>178</v>
@@ -3027,7 +3710,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
@@ -3038,7 +3721,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
@@ -3049,7 +3732,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>60</v>
@@ -3060,7 +3743,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>61</v>
@@ -3071,7 +3754,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>62</v>
@@ -3082,7 +3765,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -3093,7 +3776,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -3104,7 +3787,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>65</v>
@@ -3115,7 +3798,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>37</v>
@@ -3126,7 +3809,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>66</v>
@@ -3137,7 +3820,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -3148,7 +3831,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>61</v>
@@ -3159,7 +3842,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>62</v>
@@ -3170,7 +3853,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>63</v>
@@ -3181,7 +3864,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -3192,7 +3875,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>65</v>
@@ -3203,7 +3886,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>37</v>
@@ -3214,7 +3897,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -3225,7 +3908,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>66</v>
@@ -3236,7 +3919,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -3247,7 +3930,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
@@ -3258,7 +3941,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>70</v>
@@ -3269,7 +3952,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>36</v>
@@ -3280,7 +3963,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -3324,7 +4007,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
@@ -3335,7 +4018,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>22</v>
@@ -3346,7 +4029,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>74</v>
@@ -3357,7 +4040,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>75</v>
@@ -3368,7 +4051,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>76</v>
@@ -3379,7 +4062,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -3390,7 +4073,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>22</v>
@@ -3401,7 +4084,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>78</v>
@@ -3412,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>79</v>
@@ -3423,7 +4106,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>80</v>
@@ -3434,7 +4117,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>81</v>
@@ -3445,7 +4128,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>82</v>
@@ -3456,7 +4139,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>21</v>
@@ -3467,7 +4150,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
@@ -3478,7 +4161,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>83</v>
@@ -3489,7 +4172,7 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>84</v>
@@ -3500,7 +4183,7 @@
         <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>85</v>
@@ -3511,7 +4194,7 @@
         <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>86</v>
@@ -3522,7 +4205,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>87</v>
@@ -3533,7 +4216,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>88</v>
@@ -3544,7 +4227,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>89</v>
@@ -3555,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>90</v>
@@ -3566,7 +4249,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>91</v>
@@ -3577,7 +4260,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
@@ -3588,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>93</v>
@@ -3599,7 +4282,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
@@ -3610,7 +4293,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>95</v>
@@ -3621,7 +4304,7 @@
         <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>96</v>
@@ -3632,7 +4315,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>21</v>
@@ -3643,7 +4326,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>97</v>
@@ -3654,7 +4337,7 @@
         <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -3665,7 +4348,7 @@
         <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>99</v>
@@ -3676,7 +4359,7 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>100</v>
@@ -3687,7 +4370,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>101</v>
@@ -3698,7 +4381,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>102</v>
@@ -3709,7 +4392,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>103</v>
@@ -3720,7 +4403,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>104</v>
@@ -3731,7 +4414,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>105</v>
@@ -3742,7 +4425,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>106</v>
@@ -3753,7 +4436,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>107</v>
@@ -3764,7 +4447,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>108</v>
@@ -3775,7 +4458,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>109</v>
@@ -3786,7 +4469,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>110</v>
@@ -3797,7 +4480,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>111</v>
@@ -3808,7 +4491,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>112</v>
@@ -3819,7 +4502,7 @@
         <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>21</v>
@@ -3830,7 +4513,7 @@
         <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -3841,7 +4524,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>78</v>
@@ -3852,7 +4535,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>79</v>
@@ -3863,7 +4546,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>80</v>
@@ -3874,7 +4557,7 @@
         <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>81</v>
@@ -3885,7 +4568,7 @@
         <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -3896,7 +4579,7 @@
         <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>21</v>
@@ -3907,7 +4590,7 @@
         <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -3918,7 +4601,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>115</v>
@@ -3929,7 +4612,7 @@
         <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>116</v>
@@ -3940,7 +4623,7 @@
         <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -3951,7 +4634,7 @@
         <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>22</v>
@@ -3962,7 +4645,7 @@
         <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>118</v>
@@ -3973,7 +4656,7 @@
         <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>119</v>
@@ -3984,7 +4667,7 @@
         <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>120</v>
@@ -3995,7 +4678,7 @@
         <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -4006,7 +4689,7 @@
         <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>122</v>
@@ -4017,7 +4700,7 @@
         <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>83</v>
@@ -4028,7 +4711,7 @@
         <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>84</v>
@@ -4039,7 +4722,7 @@
         <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>85</v>
@@ -4050,7 +4733,7 @@
         <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>86</v>
@@ -4061,7 +4744,7 @@
         <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>87</v>
@@ -4072,7 +4755,7 @@
         <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>88</v>
@@ -4083,7 +4766,7 @@
         <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>89</v>
@@ -4094,7 +4777,7 @@
         <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>90</v>
@@ -4105,7 +4788,7 @@
         <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>91</v>
@@ -4116,7 +4799,7 @@
         <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>92</v>
@@ -4127,7 +4810,7 @@
         <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>93</v>
@@ -4138,7 +4821,7 @@
         <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>94</v>
@@ -4149,7 +4832,7 @@
         <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>95</v>
@@ -4160,7 +4843,7 @@
         <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
@@ -4171,7 +4854,7 @@
         <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -4182,7 +4865,7 @@
         <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>125</v>
@@ -4193,7 +4876,7 @@
         <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>126</v>
@@ -4204,7 +4887,7 @@
         <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>127</v>
@@ -4215,7 +4898,7 @@
         <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>128</v>
@@ -4226,7 +4909,7 @@
         <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>118</v>
@@ -4237,7 +4920,7 @@
         <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -4248,7 +4931,7 @@
         <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>130</v>
@@ -4259,7 +4942,7 @@
         <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>131</v>
@@ -4270,7 +4953,7 @@
         <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>132</v>
@@ -4281,7 +4964,7 @@
         <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>133</v>
@@ -4292,7 +4975,7 @@
         <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>134</v>
@@ -4303,7 +4986,7 @@
         <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4314,7 +4997,7 @@
         <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -4325,7 +5008,7 @@
         <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>22</v>
@@ -4336,7 +5019,7 @@
         <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>136</v>
@@ -4347,7 +5030,7 @@
         <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>137</v>
@@ -4358,7 +5041,7 @@
         <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
@@ -4369,7 +5052,7 @@
         <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
@@ -4380,7 +5063,7 @@
         <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>19</v>
@@ -4391,7 +5074,7 @@
         <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>139</v>
@@ -4402,7 +5085,7 @@
         <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
@@ -4413,7 +5096,7 @@
         <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>141</v>
@@ -4424,7 +5107,7 @@
         <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>142</v>
@@ -4435,7 +5118,7 @@
         <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>143</v>
@@ -4446,7 +5129,7 @@
         <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
@@ -4457,7 +5140,7 @@
         <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -4468,7 +5151,7 @@
         <v>144</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>22</v>
@@ -4479,7 +5162,7 @@
         <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>146</v>
@@ -4490,7 +5173,7 @@
         <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>147</v>
@@ -4501,7 +5184,7 @@
         <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>148</v>
@@ -4512,7 +5195,7 @@
         <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>149</v>
@@ -4523,7 +5206,7 @@
         <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>21</v>
@@ -4534,7 +5217,7 @@
         <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -4545,7 +5228,7 @@
         <v>155</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>150</v>
@@ -4556,7 +5239,7 @@
         <v>155</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>151</v>
@@ -4567,7 +5250,7 @@
         <v>155</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>152</v>
@@ -4578,7 +5261,7 @@
         <v>155</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>153</v>
@@ -4589,7 +5272,7 @@
         <v>155</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>154</v>
@@ -4600,7 +5283,7 @@
         <v>155</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -4611,7 +5294,7 @@
         <v>155</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>22</v>
@@ -4622,7 +5305,7 @@
         <v>158</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>146</v>
@@ -4633,7 +5316,7 @@
         <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>156</v>
@@ -4644,7 +5327,7 @@
         <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>157</v>
@@ -4655,7 +5338,7 @@
         <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
@@ -4666,7 +5349,7 @@
         <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>22</v>
@@ -4677,7 +5360,7 @@
         <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>29</v>
@@ -4688,7 +5371,7 @@
         <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>30</v>
@@ -4699,7 +5382,7 @@
         <v>161</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>29</v>
@@ -4710,7 +5393,7 @@
         <v>161</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>30</v>
@@ -4721,7 +5404,7 @@
         <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>160</v>
@@ -4732,7 +5415,7 @@
         <v>162</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>15</v>
@@ -4743,7 +5426,7 @@
         <v>162</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -4754,7 +5437,7 @@
         <v>162</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>163</v>
@@ -4765,7 +5448,7 @@
         <v>162</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>175</v>
@@ -4776,7 +5459,7 @@
         <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>174</v>
@@ -4784,21 +5467,21 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>23</v>
@@ -4809,7 +5492,7 @@
         <v>17</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
@@ -4820,7 +5503,7 @@
         <v>17</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>20</v>
@@ -4828,87 +5511,87 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>21</v>
@@ -4916,21 +5599,21 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>23</v>
@@ -4938,10 +5621,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>122</v>
@@ -4949,54 +5632,54 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
@@ -5004,12 +5687,89 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5041,26 +5801,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5068,18 +5828,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5106,523 +5866,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B22" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="B56" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="B57" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="B59" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
-      <c r="A56" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="19" t="s">
+      <c r="B65" s="17" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/femaleClients/forms/client6Month/client6Month.xlsx
+++ b/app/config/tables/femaleClients/forms/client6Month/client6Month.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="33199" windowHeight="27517" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="33199" windowHeight="27517" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="373">
   <si>
     <t>type</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>values_list</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>interviewer_id</t>
@@ -1809,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1835,7 +1832,7 @@
         <v>221</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1847,16 +1844,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>3</v>
@@ -1868,7 +1865,7 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>220</v>
@@ -1886,7 +1883,7 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -1922,7 +1919,7 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>185</v>
@@ -1943,7 +1940,7 @@
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>187</v>
@@ -1956,7 +1953,7 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>188</v>
@@ -1965,13 +1962,13 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>189</v>
@@ -1979,10 +1976,10 @@
     </row>
     <row r="9" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>343</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>344</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="20"/>
@@ -1994,7 +1991,7 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>191</v>
@@ -2003,13 +2000,13 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>192</v>
@@ -2017,10 +2014,10 @@
     </row>
     <row r="12" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="20"/>
@@ -2032,7 +2029,7 @@
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>193</v>
@@ -2040,7 +2037,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B14" s="25"/>
       <c r="D14" s="26"/>
@@ -2048,7 +2045,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" s="25"/>
       <c r="D15" s="26"/>
@@ -2061,7 +2058,7 @@
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>194</v>
@@ -2070,24 +2067,24 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="20"/>
@@ -2099,7 +2096,7 @@
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>195</v>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" s="25"/>
       <c r="D20" s="26"/>
@@ -2116,13 +2113,13 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>271</v>
-      </c>
       <c r="E21" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>196</v>
@@ -2130,10 +2127,10 @@
     </row>
     <row r="22" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="20"/>
@@ -2145,7 +2142,7 @@
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>197</v>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B24" s="25"/>
       <c r="D24" s="26"/>
@@ -2162,13 +2159,13 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>198</v>
@@ -2177,28 +2174,28 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>200</v>
@@ -2209,10 +2206,10 @@
     </row>
     <row r="28" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="20"/>
@@ -2224,7 +2221,7 @@
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>202</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B30" s="25"/>
       <c r="D30" s="26"/>
@@ -2245,7 +2242,7 @@
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>203</v>
@@ -2255,13 +2252,13 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>179</v>
@@ -2269,10 +2266,10 @@
     </row>
     <row r="33" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="20"/>
@@ -2280,13 +2277,13 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>180</v>
@@ -2299,10 +2296,10 @@
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>204</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" s="25"/>
       <c r="D36" s="26"/>
@@ -2323,23 +2320,23 @@
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>205</v>
       </c>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="C38" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>206</v>
@@ -2350,10 +2347,10 @@
     </row>
     <row r="39" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="20"/>
@@ -2361,13 +2358,13 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="25"/>
       <c r="C40" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>171</v>
@@ -2375,10 +2372,10 @@
     </row>
     <row r="41" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="20"/>
@@ -2390,7 +2387,7 @@
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>208</v>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B43" s="25"/>
       <c r="D43" s="26"/>
@@ -2407,13 +2404,13 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="25"/>
       <c r="C44" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>209</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="25"/>
       <c r="D45" s="26"/>
@@ -2430,13 +2427,13 @@
     <row r="46" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B46" s="25"/>
       <c r="C46" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>172</v>
@@ -2445,13 +2442,13 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" s="25"/>
       <c r="C47" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>35</v>
@@ -2464,7 +2461,7 @@
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>173</v>
@@ -2476,13 +2473,13 @@
     <row r="49" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B49" s="25"/>
       <c r="C49" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>174</v>
@@ -2491,13 +2488,13 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" s="25"/>
       <c r="C50" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>175</v>
@@ -2506,13 +2503,13 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" s="25"/>
       <c r="C51" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>211</v>
@@ -2520,10 +2517,10 @@
     </row>
     <row r="52" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="20"/>
@@ -2531,13 +2528,13 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" s="25"/>
       <c r="C53" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>212</v>
@@ -2546,13 +2543,13 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" s="25"/>
       <c r="C54" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>213</v>
@@ -2560,7 +2557,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" s="25"/>
       <c r="D55" s="27"/>
@@ -2569,13 +2566,13 @@
     <row r="56" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B56" s="25"/>
       <c r="C56" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>214</v>
@@ -2587,13 +2584,13 @@
     <row r="57" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B57" s="25"/>
       <c r="C57" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>216</v>
@@ -2602,13 +2599,13 @@
     <row r="58" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B58" s="25"/>
       <c r="C58" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>176</v>
@@ -2617,13 +2614,13 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" s="25"/>
       <c r="C59" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>177</v>
@@ -2631,10 +2628,10 @@
     </row>
     <row r="60" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="20"/>
@@ -2642,13 +2639,13 @@
     <row r="61" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B61" s="25"/>
       <c r="C61" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>178</v>
@@ -2656,7 +2653,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="25"/>
       <c r="D62" s="26"/>
@@ -2670,7 +2667,7 @@
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" s="27" t="s">
         <v>219</v>
@@ -2681,13 +2678,13 @@
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>218</v>
@@ -2699,10 +2696,10 @@
     </row>
     <row r="65" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="27"/>
@@ -2719,7 +2716,7 @@
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66" s="27" t="s">
         <v>181</v>
@@ -2728,7 +2725,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="29"/>
@@ -2739,10 +2736,10 @@
     </row>
     <row r="68" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="27"/>
@@ -2754,13 +2751,13 @@
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F69" s="27" t="s">
         <v>162</v>
@@ -2769,10 +2766,10 @@
     </row>
     <row r="70" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="27"/>
@@ -2784,19 +2781,19 @@
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>150</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>163</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -2807,15 +2804,15 @@
       <c r="E72" s="33"/>
       <c r="F72" s="31"/>
       <c r="G72" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="27"/>
@@ -2831,7 +2828,7 @@
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F74" s="27" t="s">
         <v>170</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B75" s="27"/>
       <c r="C75" s="29"/>
@@ -2851,7 +2848,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="27"/>
       <c r="C76" s="29"/>
@@ -2862,7 +2859,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B77" s="27"/>
       <c r="C77" s="29"/>
@@ -2879,10 +2876,10 @@
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G78" s="27"/>
     </row>
@@ -2894,7 +2891,7 @@
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>217</v>
@@ -3070,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3084,13 +3081,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3098,7 +3095,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -3109,7 +3106,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -3120,7 +3117,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -3131,7 +3128,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -3142,7 +3139,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -3153,7 +3150,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -3164,7 +3161,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -3175,7 +3172,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -3186,7 +3183,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
@@ -3197,7 +3194,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -3208,7 +3205,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -3219,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -3230,7 +3227,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -3241,7 +3238,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -3252,7 +3249,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -3263,7 +3260,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -3274,7 +3271,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
@@ -3285,7 +3282,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
@@ -3296,7 +3293,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -3307,7 +3304,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -3318,7 +3315,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -3329,7 +3326,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -3340,7 +3337,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -3351,7 +3348,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -3362,7 +3359,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
@@ -3373,7 +3370,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -3384,7 +3381,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -3395,7 +3392,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
@@ -3406,7 +3403,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
@@ -3417,7 +3414,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -3428,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -3439,7 +3436,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>42</v>
@@ -3450,7 +3447,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
@@ -3461,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
@@ -3472,7 +3469,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
@@ -3483,7 +3480,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>167</v>
@@ -3494,7 +3491,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>46</v>
@@ -3505,7 +3502,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>47</v>
@@ -3516,7 +3513,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>31</v>
@@ -3527,7 +3524,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>17</v>
@@ -3538,7 +3535,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -3549,7 +3546,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
@@ -3560,7 +3557,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
@@ -3571,7 +3568,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
@@ -3582,7 +3579,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>31</v>
@@ -3593,7 +3590,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
@@ -3604,7 +3601,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>168</v>
@@ -3615,7 +3612,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>53</v>
@@ -3626,7 +3623,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>169</v>
@@ -3637,7 +3634,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>31</v>
@@ -3648,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>17</v>
@@ -3659,7 +3656,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>55</v>
@@ -3670,7 +3667,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>56</v>
@@ -3681,7 +3678,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>57</v>
@@ -3692,7 +3689,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>58</v>
@@ -3703,7 +3700,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>59</v>
@@ -3714,7 +3711,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>60</v>
@@ -3725,7 +3722,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>32</v>
@@ -3736,7 +3733,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>61</v>
@@ -3747,7 +3744,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>55</v>
@@ -3758,7 +3755,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>56</v>
@@ -3769,7 +3766,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>57</v>
@@ -3780,7 +3777,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>58</v>
@@ -3791,7 +3788,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>59</v>
@@ -3802,7 +3799,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>60</v>
@@ -3813,7 +3810,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>32</v>
@@ -3824,7 +3821,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>63</v>
@@ -3835,7 +3832,7 @@
         <v>62</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>61</v>
@@ -3846,7 +3843,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -3857,7 +3854,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
@@ -3868,7 +3865,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>65</v>
@@ -3879,7 +3876,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -3890,7 +3887,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>17</v>
@@ -3934,7 +3931,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>31</v>
@@ -3945,7 +3942,7 @@
         <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
@@ -3956,7 +3953,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>69</v>
@@ -3967,7 +3964,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>70</v>
@@ -3978,7 +3975,7 @@
         <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>71</v>
@@ -3989,7 +3986,7 @@
         <v>68</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>18</v>
@@ -4000,7 +3997,7 @@
         <v>68</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
@@ -4011,7 +4008,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>73</v>
@@ -4022,7 +4019,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>74</v>
@@ -4033,7 +4030,7 @@
         <v>72</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>75</v>
@@ -4044,7 +4041,7 @@
         <v>72</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>76</v>
@@ -4055,7 +4052,7 @@
         <v>72</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>77</v>
@@ -4066,7 +4063,7 @@
         <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>16</v>
@@ -4077,7 +4074,7 @@
         <v>72</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
@@ -4088,7 +4085,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>78</v>
@@ -4099,7 +4096,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>79</v>
@@ -4110,7 +4107,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>80</v>
@@ -4121,7 +4118,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>81</v>
@@ -4132,7 +4129,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>82</v>
@@ -4143,7 +4140,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>83</v>
@@ -4154,7 +4151,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>84</v>
@@ -4165,7 +4162,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>85</v>
@@ -4176,7 +4173,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>86</v>
@@ -4187,7 +4184,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>87</v>
@@ -4198,7 +4195,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>88</v>
@@ -4209,7 +4206,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>89</v>
@@ -4220,7 +4217,7 @@
         <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>90</v>
@@ -4231,7 +4228,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>91</v>
@@ -4242,7 +4239,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
@@ -4253,7 +4250,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>92</v>
@@ -4264,7 +4261,7 @@
         <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>18</v>
@@ -4275,7 +4272,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>94</v>
@@ -4286,7 +4283,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>95</v>
@@ -4297,7 +4294,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>96</v>
@@ -4308,7 +4305,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>97</v>
@@ -4319,7 +4316,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>98</v>
@@ -4330,7 +4327,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>99</v>
@@ -4341,7 +4338,7 @@
         <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>100</v>
@@ -4352,7 +4349,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>101</v>
@@ -4363,7 +4360,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>102</v>
@@ -4374,7 +4371,7 @@
         <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>103</v>
@@ -4385,7 +4382,7 @@
         <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>104</v>
@@ -4396,7 +4393,7 @@
         <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>105</v>
@@ -4407,7 +4404,7 @@
         <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>106</v>
@@ -4418,7 +4415,7 @@
         <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>107</v>
@@ -4429,7 +4426,7 @@
         <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>16</v>
@@ -4440,7 +4437,7 @@
         <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>18</v>
@@ -4451,7 +4448,7 @@
         <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>73</v>
@@ -4462,7 +4459,7 @@
         <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>74</v>
@@ -4473,7 +4470,7 @@
         <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>75</v>
@@ -4484,7 +4481,7 @@
         <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>76</v>
@@ -4495,7 +4492,7 @@
         <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>77</v>
@@ -4506,7 +4503,7 @@
         <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -4517,7 +4514,7 @@
         <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>18</v>
@@ -4528,7 +4525,7 @@
         <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>110</v>
@@ -4539,7 +4536,7 @@
         <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>111</v>
@@ -4550,7 +4547,7 @@
         <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>18</v>
@@ -4561,7 +4558,7 @@
         <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>17</v>
@@ -4572,7 +4569,7 @@
         <v>116</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>113</v>
@@ -4583,7 +4580,7 @@
         <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>114</v>
@@ -4594,7 +4591,7 @@
         <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>115</v>
@@ -4605,7 +4602,7 @@
         <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
@@ -4616,7 +4613,7 @@
         <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>117</v>
@@ -4627,7 +4624,7 @@
         <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>78</v>
@@ -4638,7 +4635,7 @@
         <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>79</v>
@@ -4649,7 +4646,7 @@
         <v>118</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>80</v>
@@ -4660,7 +4657,7 @@
         <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>81</v>
@@ -4671,7 +4668,7 @@
         <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>82</v>
@@ -4682,7 +4679,7 @@
         <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>83</v>
@@ -4693,7 +4690,7 @@
         <v>118</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>84</v>
@@ -4704,7 +4701,7 @@
         <v>118</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>85</v>
@@ -4715,7 +4712,7 @@
         <v>118</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>86</v>
@@ -4726,7 +4723,7 @@
         <v>118</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>87</v>
@@ -4737,7 +4734,7 @@
         <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>88</v>
@@ -4748,7 +4745,7 @@
         <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>89</v>
@@ -4759,7 +4756,7 @@
         <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>90</v>
@@ -4770,7 +4767,7 @@
         <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>16</v>
@@ -4781,7 +4778,7 @@
         <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
@@ -4792,7 +4789,7 @@
         <v>124</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>120</v>
@@ -4803,7 +4800,7 @@
         <v>124</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>121</v>
@@ -4814,7 +4811,7 @@
         <v>124</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>122</v>
@@ -4825,7 +4822,7 @@
         <v>124</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>123</v>
@@ -4836,7 +4833,7 @@
         <v>124</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>113</v>
@@ -4847,7 +4844,7 @@
         <v>124</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
@@ -4858,7 +4855,7 @@
         <v>130</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>125</v>
@@ -4869,7 +4866,7 @@
         <v>130</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>126</v>
@@ -4880,7 +4877,7 @@
         <v>130</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>127</v>
@@ -4891,7 +4888,7 @@
         <v>130</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>128</v>
@@ -4902,7 +4899,7 @@
         <v>130</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>129</v>
@@ -4913,7 +4910,7 @@
         <v>130</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -4924,7 +4921,7 @@
         <v>130</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
@@ -4935,7 +4932,7 @@
         <v>130</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
@@ -4946,7 +4943,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>131</v>
@@ -4957,7 +4954,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>132</v>
@@ -4968,7 +4965,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>18</v>
@@ -4979,7 +4976,7 @@
         <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>15</v>
@@ -4990,7 +4987,7 @@
         <v>135</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
@@ -5001,7 +4998,7 @@
         <v>135</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>134</v>
@@ -5012,7 +5009,7 @@
         <v>135</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
@@ -5023,7 +5020,7 @@
         <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>136</v>
@@ -5034,7 +5031,7 @@
         <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>137</v>
@@ -5045,7 +5042,7 @@
         <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>138</v>
@@ -5056,7 +5053,7 @@
         <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
@@ -5067,7 +5064,7 @@
         <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
@@ -5078,7 +5075,7 @@
         <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -5089,7 +5086,7 @@
         <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>141</v>
@@ -5100,7 +5097,7 @@
         <v>140</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>142</v>
@@ -5111,7 +5108,7 @@
         <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>143</v>
@@ -5122,7 +5119,7 @@
         <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>144</v>
@@ -5133,7 +5130,7 @@
         <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>16</v>
@@ -5144,7 +5141,7 @@
         <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>18</v>
@@ -5155,7 +5152,7 @@
         <v>150</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>145</v>
@@ -5166,7 +5163,7 @@
         <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>146</v>
@@ -5177,7 +5174,7 @@
         <v>150</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>147</v>
@@ -5188,7 +5185,7 @@
         <v>150</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>148</v>
@@ -5199,7 +5196,7 @@
         <v>150</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>149</v>
@@ -5210,7 +5207,7 @@
         <v>150</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>18</v>
@@ -5221,7 +5218,7 @@
         <v>150</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
@@ -5232,7 +5229,7 @@
         <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>141</v>
@@ -5243,7 +5240,7 @@
         <v>153</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>151</v>
@@ -5254,7 +5251,7 @@
         <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>152</v>
@@ -5265,7 +5262,7 @@
         <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>18</v>
@@ -5276,7 +5273,7 @@
         <v>153</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>17</v>
@@ -5287,7 +5284,7 @@
         <v>154</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>24</v>
@@ -5298,7 +5295,7 @@
         <v>154</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
@@ -5309,7 +5306,7 @@
         <v>156</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>24</v>
@@ -5320,7 +5317,7 @@
         <v>156</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
@@ -5331,7 +5328,7 @@
         <v>156</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>155</v>
@@ -5342,7 +5339,7 @@
         <v>157</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -5353,7 +5350,7 @@
         <v>157</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
@@ -5364,7 +5361,7 @@
         <v>157</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>158</v>
@@ -5375,7 +5372,7 @@
         <v>157</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>166</v>
@@ -5386,7 +5383,7 @@
         <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>165</v>
@@ -5397,7 +5394,7 @@
         <v>182</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>183</v>
@@ -5408,7 +5405,7 @@
         <v>182</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>18</v>
@@ -5419,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>14</v>
@@ -5430,7 +5427,7 @@
         <v>12</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>15</v>
@@ -5438,87 +5435,87 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>16</v>
@@ -5526,21 +5523,21 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>18</v>
@@ -5548,10 +5545,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>117</v>
@@ -5559,54 +5556,54 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>16</v>
@@ -5614,10 +5611,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>18</v>
@@ -5625,65 +5622,65 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>16</v>
@@ -5691,10 +5688,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>18</v>
@@ -5728,13 +5725,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
         <v>277</v>
       </c>
-      <c r="B1" t="s">
-        <v>278</v>
-      </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5742,12 +5739,12 @@
         <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5755,18 +5752,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
         <v>283</v>
-      </c>
-      <c r="B5" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5805,7 +5802,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,15 +5810,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5829,7 +5826,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5853,15 +5850,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5869,15 +5866,15 @@
         <v>190</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +5882,7 @@
         <v>190</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,15 +5890,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5909,31 +5906,31 @@
         <v>4</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,23 +5938,23 @@
         <v>4</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,23 +5962,23 @@
         <v>5</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5989,31 +5986,31 @@
         <v>4</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6021,95 +6018,95 @@
         <v>5</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6117,23 +6114,23 @@
         <v>4</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6141,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6149,39 +6146,39 @@
         <v>4</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6189,15 +6186,15 @@
         <v>5</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6205,23 +6202,23 @@
         <v>4</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6229,15 +6226,15 @@
         <v>4</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,15 +6242,15 @@
         <v>4</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6261,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6269,7 +6266,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,31 +6274,31 @@
         <v>5</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>338</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6309,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
